--- a/test_type_understanding/06_不具合報告書.xlsx
+++ b/test_type_understanding/06_不具合報告書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{657E5E30-6703-AE41-BD7C-121597802E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E976DAF-AEFE-1546-8574-7ADB0949E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{94C50201-1EF2-F647-8FC5-6329C3FBAAC8}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="不具合" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>期待動作</t>
     <rPh sb="0" eb="4">
@@ -96,50 +95,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニューページのメニュー紹介にて、ブレンドコーヒー以降のメニューをクリックしても画像が切り替わらない</t>
-    <rPh sb="25" eb="27">
-      <t xml:space="preserve">イコウ </t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t xml:space="preserve">ガゾウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画像が切り替わらない</t>
+    <t>トップページのヘッダーのHomeをクリックしても反応しない</t>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ハンノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ページ名】
+トップページ
+【部品番号】
+1-1-2
+【事象詳細】
+ヘッダーのHomeをクリックしても反応しない
+【その他】
+DICアイコン、Menu、Contactは問題なく動作している</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t xml:space="preserve">ジショウショウサイ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">ハンノウ </t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t xml:space="preserve">タ </t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t xml:space="preserve">モンダイ </t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t xml:space="preserve">ドウサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. トップページを表示する
+2. [部品番号1-1-2]Homeをクリックする</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">ブヒン </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反応しない</t>
     <rPh sb="0" eb="2">
-      <t xml:space="preserve">ガゾウガ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">キリカワラナイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックしたメニューの画像に切り替わること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>36
-37
-38
-39</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューページの2-3メニュー紹介にて、以下のメニューをクリックしても画像が切り替わらない
-・ブレンドコーヒー
-・カフェラテ
-・アートコーヒー
-・アイスコーヒー</t>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">イカノ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. メニューページを表示する
-2. 2-3メニュー紹介にてブレンドコーヒー, カフェラテ, アートコーヒー, アイスコーヒーのいずれかをクリックする</t>
+      <t xml:space="preserve">ハンノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページを再表示すること
+ページ表示の際にスクロール位置が先頭になっていること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -611,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="147">
+    <row r="5" spans="1:7" ht="252">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -619,19 +633,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
+      <c r="G5" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">

--- a/test_type_understanding/06_不具合報告書.xlsx
+++ b/test_type_understanding/06_不具合報告書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/課題用ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hikaru.hattori/Documents/小町さんの手伝い案件/原本/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E976DAF-AEFE-1546-8574-7ADB0949E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1B5435-4EF4-B84E-A763-80582D91C516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{94C50201-1EF2-F647-8FC5-6329C3FBAAC8}"/>
+    <workbookView xWindow="2500" yWindow="500" windowWidth="26300" windowHeight="15800" xr2:uid="{94C50201-1EF2-F647-8FC5-6329C3FBAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="不具合" sheetId="1" r:id="rId1"/>
@@ -102,10 +102,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>反応しない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハンノウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップページを再表示すること
+ページ表示の際にスクロール位置が先頭になっていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>【ページ名】
 トップページ
 【部品番号】
-1-1-2
+F-1-1-2
 【事象詳細】
 ヘッダーのHomeをクリックしても反応しない
 【その他】
@@ -116,44 +128,32 @@
     <rPh sb="18" eb="20">
       <t xml:space="preserve">バンゴウ </t>
     </rPh>
-    <rPh sb="30" eb="34">
+    <rPh sb="32" eb="36">
       <t xml:space="preserve">ジショウショウサイ </t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="55" eb="57">
       <t xml:space="preserve">ハンノウ </t>
     </rPh>
-    <rPh sb="63" eb="64">
+    <rPh sb="65" eb="66">
       <t xml:space="preserve">タ </t>
     </rPh>
-    <rPh sb="87" eb="89">
+    <rPh sb="89" eb="91">
       <t xml:space="preserve">モンダイ </t>
     </rPh>
-    <rPh sb="91" eb="93">
+    <rPh sb="93" eb="95">
       <t xml:space="preserve">ドウサ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1. トップページを表示する
-2. [部品番号1-1-2]Homeをクリックする</t>
+2. [部品番号F-1-1-2]Homeをクリックする</t>
     <rPh sb="19" eb="21">
       <t xml:space="preserve">ブヒン </t>
     </rPh>
     <rPh sb="21" eb="23">
       <t xml:space="preserve">バンゴウ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反応しない</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ハンノウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トップページを再表示すること
-ページ表示の際にスクロール位置が先頭になっていること</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -633,19 +633,19 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
